--- a/test_workbook/work1/製造品目詳細一覧_work1.xlsx
+++ b/test_workbook/work1/製造品目詳細一覧_work1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB3182-D8B1-43CF-B2DD-6A58E249D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F18675-4C43-4627-974D-F07D29096199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A95841F-606D-4EC6-9AB4-E4C0858CD7FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99B14FB7-7C7D-46E1-96ED-E2846454F8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>品目CD</t>
   </si>
@@ -74,6 +74,18 @@
     <t>LOCC1</t>
   </si>
   <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>子B</t>
+  </si>
+  <si>
+    <t>intC2</t>
+  </si>
+  <si>
+    <t>LOCC2</t>
+  </si>
+  <si>
     <t>C003</t>
   </si>
   <si>
@@ -89,61 +101,25 @@
     <t>P004</t>
   </si>
   <si>
-    <t>親E</t>
-  </si>
-  <si>
-    <t>intE</t>
-  </si>
-  <si>
-    <t>LOC5</t>
+    <t>親D</t>
+  </si>
+  <si>
+    <t>intD</t>
+  </si>
+  <si>
+    <t>LOC4</t>
   </si>
   <si>
     <t>C004</t>
   </si>
   <si>
-    <t>子E</t>
-  </si>
-  <si>
-    <t>intC5</t>
-  </si>
-  <si>
-    <t>LOCC5</t>
-  </si>
-  <si>
-    <t>P010</t>
-  </si>
-  <si>
-    <t>親X</t>
-  </si>
-  <si>
-    <t>intX</t>
-  </si>
-  <si>
-    <t>LOCX</t>
-  </si>
-  <si>
-    <t>C010</t>
-  </si>
-  <si>
-    <t>子X</t>
-  </si>
-  <si>
-    <t>intCX</t>
-  </si>
-  <si>
-    <t>LOCCX</t>
-  </si>
-  <si>
-    <t>C012</t>
-  </si>
-  <si>
-    <t>子Z</t>
-  </si>
-  <si>
-    <t>intCZ</t>
-  </si>
-  <si>
-    <t>LOCCZ</t>
+    <t>子D</t>
+  </si>
+  <si>
+    <t>intC4</t>
+  </si>
+  <si>
+    <t>LOCC4</t>
   </si>
 </sst>
 </file>
@@ -526,8 +502,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28492C9E-2E92-4569-A3BF-4AFF2DAE4F47}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D466018B-E05B-4DF2-BD8E-BF16DC7CA649}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,86 +582,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
